--- a/01_Organisation/04_Zeitplan/SysP18-Team10-IST-Zeitplan_v1_2017-10-13.xlsx
+++ b/01_Organisation/04_Zeitplan/SysP18-Team10-IST-Zeitplan_v1_2017-10-13.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luz_w\Documents\Schule\GitHub\SysP18_1cv\Systemtechnikprojekt\Systemtechnikprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs003\stud\lweber\Desktop\SysP18_1cv\01_Organisation\04_Zeitplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
     <sheet name="Kompatibilitätsbericht" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -473,7 +473,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1400,15 +1400,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1719,25 +1719,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AT60"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="C30" zoomScale="50" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A7" zoomScale="50" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="AI37" sqref="AI37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="77.36328125" style="36" customWidth="1"/>
-    <col min="3" max="45" width="6.81640625" style="36" customWidth="1"/>
-    <col min="46" max="16384" width="8.81640625" style="36"/>
+    <col min="1" max="1" width="16.42578125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" style="36" customWidth="1"/>
+    <col min="3" max="45" width="6.85546875" style="36" customWidth="1"/>
+    <col min="46" max="16384" width="8.85546875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="31" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="AS1" s="136"/>
     </row>
-    <row r="2" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:46" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
       <c r="B2" s="38" t="s">
         <v>4</v>
@@ -1863,7 +1863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:46" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="41" t="s">
         <v>15</v>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="AT3" s="42"/>
     </row>
-    <row r="4" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>54</v>
       </c>
@@ -2051,7 +2051,7 @@
       <c r="AS4" s="50"/>
       <c r="AT4" s="42"/>
     </row>
-    <row r="5" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>56</v>
       </c>
@@ -2103,7 +2103,7 @@
       <c r="AS5" s="58"/>
       <c r="AT5" s="42"/>
     </row>
-    <row r="6" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
         <v>58</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="AS6" s="58"/>
       <c r="AT6" s="42"/>
     </row>
-    <row r="7" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="12" t="s">
         <v>60</v>
@@ -2214,7 +2214,7 @@
       <c r="AS7" s="58"/>
       <c r="AT7" s="42"/>
     </row>
-    <row r="8" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="65"/>
       <c r="B8" s="10"/>
       <c r="C8" s="71"/>
@@ -2262,7 +2262,7 @@
       <c r="AS8" s="58"/>
       <c r="AT8" s="42"/>
     </row>
-    <row r="9" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="10" t="s">
         <v>115</v>
@@ -2312,7 +2312,7 @@
       <c r="AS9" s="58"/>
       <c r="AT9" s="42"/>
     </row>
-    <row r="10" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="130" t="s">
         <v>116</v>
@@ -2362,7 +2362,7 @@
       <c r="AS10" s="58"/>
       <c r="AT10" s="42"/>
     </row>
-    <row r="11" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="65"/>
       <c r="B11" s="13" t="s">
         <v>61</v>
@@ -2416,7 +2416,7 @@
       <c r="AS11" s="58"/>
       <c r="AT11" s="42"/>
     </row>
-    <row r="12" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="65"/>
       <c r="B12" s="13" t="s">
         <v>62</v>
@@ -2473,7 +2473,7 @@
       <c r="AS12" s="58"/>
       <c r="AT12" s="42"/>
     </row>
-    <row r="13" spans="1:46" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:46" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="69"/>
       <c r="B13" s="14" t="s">
         <v>63</v>
@@ -2530,7 +2530,7 @@
       <c r="AS13" s="58"/>
       <c r="AT13" s="42"/>
     </row>
-    <row r="14" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
       <c r="B14" s="15"/>
       <c r="D14" s="72" t="s">
@@ -2580,7 +2580,7 @@
       <c r="AS14" s="58"/>
       <c r="AT14" s="42"/>
     </row>
-    <row r="15" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
         <v>54</v>
       </c>
@@ -2632,7 +2632,7 @@
       <c r="AS15" s="58"/>
       <c r="AT15" s="42"/>
     </row>
-    <row r="16" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
         <v>56</v>
       </c>
@@ -2684,7 +2684,7 @@
       <c r="AS16" s="58"/>
       <c r="AT16" s="42"/>
     </row>
-    <row r="17" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
         <v>58</v>
       </c>
@@ -2747,7 +2747,7 @@
       <c r="AS17" s="58"/>
       <c r="AT17" s="42"/>
     </row>
-    <row r="18" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="51"/>
       <c r="B18" s="18" t="s">
         <v>69</v>
@@ -2804,7 +2804,7 @@
       <c r="AS18" s="58"/>
       <c r="AT18" s="42"/>
     </row>
-    <row r="19" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="51"/>
       <c r="B19" s="19"/>
       <c r="C19" s="52"/>
@@ -2852,7 +2852,7 @@
       <c r="AS19" s="58"/>
       <c r="AT19" s="42"/>
     </row>
-    <row r="20" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51"/>
       <c r="B20" s="19" t="s">
         <v>108</v>
@@ -2902,7 +2902,7 @@
       <c r="AS20" s="58"/>
       <c r="AT20" s="42"/>
     </row>
-    <row r="21" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="51"/>
       <c r="B21" s="20" t="s">
         <v>71</v>
@@ -2959,7 +2959,7 @@
       <c r="AS21" s="58"/>
       <c r="AT21" s="42"/>
     </row>
-    <row r="22" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51"/>
       <c r="B22" s="21" t="s">
         <v>72</v>
@@ -3016,7 +3016,7 @@
       <c r="AS22" s="58"/>
       <c r="AT22" s="42"/>
     </row>
-    <row r="23" spans="1:46" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:46" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="78"/>
       <c r="B23" s="22" t="s">
         <v>73</v>
@@ -3073,7 +3073,7 @@
       <c r="AS23" s="58"/>
       <c r="AT23" s="42"/>
     </row>
-    <row r="24" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
       <c r="B24" s="23"/>
       <c r="C24" s="52"/>
@@ -3125,7 +3125,7 @@
       <c r="AS24" s="58"/>
       <c r="AT24" s="42"/>
     </row>
-    <row r="25" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="51" t="s">
         <v>54</v>
       </c>
@@ -3177,7 +3177,7 @@
       <c r="AS25" s="58"/>
       <c r="AT25" s="42"/>
     </row>
-    <row r="26" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51" t="s">
         <v>56</v>
       </c>
@@ -3229,7 +3229,7 @@
       <c r="AS26" s="58"/>
       <c r="AT26" s="42"/>
     </row>
-    <row r="27" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="51" t="s">
         <v>58</v>
       </c>
@@ -3281,7 +3281,7 @@
       <c r="AS27" s="58"/>
       <c r="AT27" s="42"/>
     </row>
-    <row r="28" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="51"/>
       <c r="B28" s="24" t="s">
         <v>76</v>
@@ -3338,7 +3338,7 @@
       <c r="AS28" s="58"/>
       <c r="AT28" s="42"/>
     </row>
-    <row r="29" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="51"/>
       <c r="B29" s="25" t="s">
         <v>77</v>
@@ -3395,7 +3395,7 @@
       <c r="AS29" s="58"/>
       <c r="AT29" s="42"/>
     </row>
-    <row r="30" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51"/>
       <c r="B30" s="26" t="s">
         <v>78</v>
@@ -3454,7 +3454,7 @@
       <c r="AS30" s="58"/>
       <c r="AT30" s="42"/>
     </row>
-    <row r="31" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="51"/>
       <c r="B31" s="27" t="s">
         <v>79</v>
@@ -3510,7 +3510,7 @@
       <c r="AS31" s="58"/>
       <c r="AT31" s="42"/>
     </row>
-    <row r="32" spans="1:46" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:46" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="78"/>
       <c r="B32" s="28" t="s">
         <v>74</v>
@@ -3550,11 +3550,11 @@
         <v>15</v>
       </c>
       <c r="AA32" s="85">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AB32" s="54">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="AC32" s="54"/>
       <c r="AD32" s="54"/>
@@ -3575,7 +3575,7 @@
       <c r="AS32" s="58"/>
       <c r="AT32" s="42"/>
     </row>
-    <row r="33" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
       <c r="B33" s="23"/>
       <c r="C33" s="52"/>
@@ -3605,7 +3605,7 @@
       <c r="AA33" s="54"/>
       <c r="AB33" s="80">
         <f>SUM(AB28:AB32)</f>
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="AC33" s="54"/>
       <c r="AD33" s="54"/>
@@ -3626,7 +3626,7 @@
       <c r="AS33" s="58"/>
       <c r="AT33" s="42"/>
     </row>
-    <row r="34" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="51" t="s">
         <v>54</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="AS34" s="58"/>
       <c r="AT34" s="42"/>
     </row>
-    <row r="35" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51" t="s">
         <v>56</v>
       </c>
@@ -3730,7 +3730,7 @@
       <c r="AS35" s="58"/>
       <c r="AT35" s="42"/>
     </row>
-    <row r="36" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="51" t="s">
         <v>58</v>
       </c>
@@ -3782,7 +3782,7 @@
       <c r="AS36" s="58"/>
       <c r="AT36" s="42"/>
     </row>
-    <row r="37" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="51"/>
       <c r="B37" s="29" t="s">
         <v>82</v>
@@ -3815,17 +3815,17 @@
       <c r="AB37" s="54"/>
       <c r="AC37" s="54"/>
       <c r="AD37" s="87">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AE37" s="87">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AF37" s="54"/>
       <c r="AG37" s="54"/>
       <c r="AH37" s="54"/>
       <c r="AI37" s="54">
         <f>SUM(C37:AH37)</f>
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="AJ37" s="54"/>
       <c r="AK37" s="57"/>
@@ -3839,7 +3839,7 @@
       <c r="AS37" s="58"/>
       <c r="AT37" s="42"/>
     </row>
-    <row r="38" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="51"/>
       <c r="B38" s="30" t="s">
         <v>83</v>
@@ -3896,7 +3896,7 @@
       <c r="AS38" s="58"/>
       <c r="AT38" s="42"/>
     </row>
-    <row r="39" spans="1:46" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:46" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="78"/>
       <c r="B39" s="31" t="s">
         <v>84</v>
@@ -3955,7 +3955,7 @@
       <c r="AS39" s="58"/>
       <c r="AT39" s="42"/>
     </row>
-    <row r="40" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="43"/>
       <c r="B40" s="23"/>
       <c r="C40" s="52"/>
@@ -3993,7 +3993,7 @@
       <c r="AH40" s="54"/>
       <c r="AI40" s="80">
         <f>SUM(AI37:AI39)</f>
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AJ40" s="54"/>
       <c r="AK40" s="57"/>
@@ -4007,7 +4007,7 @@
       <c r="AS40" s="58"/>
       <c r="AT40" s="42"/>
     </row>
-    <row r="41" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="51" t="s">
         <v>54</v>
       </c>
@@ -4059,7 +4059,7 @@
       <c r="AS41" s="58"/>
       <c r="AT41" s="42"/>
     </row>
-    <row r="42" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
         <v>56</v>
       </c>
@@ -4111,7 +4111,7 @@
       <c r="AS42" s="58"/>
       <c r="AT42" s="42"/>
     </row>
-    <row r="43" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="51" t="s">
         <v>58</v>
       </c>
@@ -4163,7 +4163,7 @@
       <c r="AS43" s="58"/>
       <c r="AT43" s="42"/>
     </row>
-    <row r="44" spans="1:46" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:46" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="51"/>
       <c r="B44" s="32" t="s">
         <v>87</v>
@@ -4222,7 +4222,7 @@
       <c r="AS44" s="58"/>
       <c r="AT44" s="42"/>
     </row>
-    <row r="45" spans="1:46" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:46" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="78"/>
       <c r="B45" s="33" t="s">
         <v>88</v>
@@ -4277,7 +4277,7 @@
       <c r="AS45" s="58"/>
       <c r="AT45" s="42"/>
     </row>
-    <row r="46" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
       <c r="B46" s="23"/>
       <c r="C46" s="52"/>
@@ -4329,7 +4329,7 @@
       <c r="AS46" s="58"/>
       <c r="AT46" s="42"/>
     </row>
-    <row r="47" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="51" t="s">
         <v>54</v>
       </c>
@@ -4381,7 +4381,7 @@
       <c r="AS47" s="58"/>
       <c r="AT47" s="42"/>
     </row>
-    <row r="48" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="51" t="s">
         <v>56</v>
       </c>
@@ -4433,7 +4433,7 @@
       <c r="AS48" s="92"/>
       <c r="AT48" s="42"/>
     </row>
-    <row r="49" spans="1:46" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:46" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="51" t="s">
         <v>58</v>
       </c>
@@ -4485,7 +4485,7 @@
       <c r="AS49" s="92"/>
       <c r="AT49" s="42"/>
     </row>
-    <row r="50" spans="1:46" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:46" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="78"/>
       <c r="B50" s="34" t="s">
         <v>87</v>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="AT50" s="42"/>
     </row>
-    <row r="51" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
       <c r="B51" s="23"/>
       <c r="C51" s="52"/>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="AT51" s="42"/>
     </row>
-    <row r="52" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="51" t="s">
         <v>54</v>
       </c>
@@ -4648,7 +4648,7 @@
       <c r="AS52" s="92"/>
       <c r="AT52" s="42"/>
     </row>
-    <row r="53" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="51" t="s">
         <v>56</v>
       </c>
@@ -4700,7 +4700,7 @@
       <c r="AS53" s="103"/>
       <c r="AT53" s="42"/>
     </row>
-    <row r="54" spans="1:46" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="51" t="s">
         <v>58</v>
       </c>
@@ -4752,7 +4752,7 @@
       <c r="AS54" s="103"/>
       <c r="AT54" s="42"/>
     </row>
-    <row r="55" spans="1:46" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:46" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="78"/>
       <c r="B55" s="35" t="s">
         <v>87</v>
@@ -4802,7 +4802,7 @@
       <c r="AS55" s="110"/>
       <c r="AT55" s="42"/>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A56" s="111"/>
       <c r="B56" s="112"/>
       <c r="C56" s="112"/>
@@ -4830,14 +4830,14 @@
       <c r="AL56" s="42"/>
       <c r="AM56" s="42"/>
     </row>
-    <row r="57" spans="1:46" ht="27.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:46" ht="27.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="114"/>
       <c r="B57" s="115" t="s">
         <v>93</v>
       </c>
       <c r="C57" s="131">
         <f>SUM(I14+O24+AB33+AI40+AP46+AS51)</f>
-        <v>414.5</v>
+        <v>482.5</v>
       </c>
       <c r="D57" s="132"/>
       <c r="I57" s="42"/>
@@ -4863,7 +4863,7 @@
       <c r="AL57" s="42"/>
       <c r="AM57" s="42"/>
     </row>
-    <row r="58" spans="1:46" ht="14" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="116"/>
       <c r="B58" s="117"/>
       <c r="C58" s="117"/>
@@ -4891,7 +4891,7 @@
       <c r="AL58" s="42"/>
       <c r="AM58" s="42"/>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
       <c r="S59" s="42"/>
       <c r="T59" s="42"/>
       <c r="U59" s="42"/>
@@ -4914,7 +4914,7 @@
       <c r="AL59" s="42"/>
       <c r="AM59" s="42"/>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
       <c r="S60" s="42"/>
       <c r="T60" s="42"/>
       <c r="U60" s="42"/>
@@ -4958,7 +4958,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="37" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="38" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>
@@ -4968,12 +4968,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4982,21 +4982,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.81640625" customWidth="1"/>
-    <col min="2" max="2" width="50.1796875" customWidth="1"/>
-    <col min="3" max="3" width="1.1796875" customWidth="1"/>
-    <col min="4" max="4" width="4.36328125" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="3" max="3" width="1.140625" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>100</v>
       </c>
@@ -5005,7 +5005,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>101</v>
       </c>
@@ -5014,14 +5014,14 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>102</v>
       </c>
@@ -5030,14 +5030,14 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>103</v>
       </c>
@@ -5050,14 +5050,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="2:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>106</v>
       </c>
@@ -5070,14 +5070,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="6"/>
